--- a/hneu-personal-account-webapp/src/test/resources/parser/disciplines.xlsx
+++ b/hneu-personal-account-webapp/src/test/resources/parser/disciplines.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oleksandrrozdolskyi/Repos/hneu-personal-account/src/test/resources/parser/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oleksandrrozdolskyi/Repos/hneu-personal-account/hneu-personal-account-webapp/src/test/resources/parser/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>Спеціальність</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Методології наукових досліджень</t>
-  </si>
-  <si>
-    <t>51-ІСУТОД</t>
   </si>
   <si>
     <t>Мережеві технології</t>
@@ -405,60 +402,32 @@
     <cellStyle name="Открывавшаяся гиперссылка" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Открывавшаяся гиперссылка" xfId="56" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -801,7 +770,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -824,10 +793,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>3</v>
@@ -839,27 +808,27 @@
         <v>2</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="23" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>122</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
+      <c r="B2" s="3">
+        <v>122</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="3">
         <v>8</v>
@@ -871,18 +840,18 @@
         <v>1</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="23" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>122</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
+      <c r="B3" s="3">
+        <v>122</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3">
         <v>2</v>
@@ -900,18 +869,18 @@
         <v>1</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="23" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>122</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
+      <c r="B4" s="3">
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3">
         <v>3</v>
@@ -929,18 +898,18 @@
         <v>1</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="23" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>122</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
+      <c r="B5" s="3">
+        <v>122</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
@@ -958,18 +927,18 @@
         <v>1</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="23" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>122</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
+      <c r="B6" s="3">
+        <v>122</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3">
         <v>5</v>
@@ -987,18 +956,18 @@
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="23" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>122</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
+      <c r="B7" s="3">
+        <v>122</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3">
         <v>6</v>
@@ -1016,18 +985,18 @@
         <v>2</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="23" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>122</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
+      <c r="B8" s="3">
+        <v>122</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3">
         <v>7</v>
@@ -1045,18 +1014,18 @@
         <v>1</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="23" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>122</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
+      <c r="B9" s="3">
+        <v>122</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3">
         <v>8</v>
@@ -1074,24 +1043,24 @@
         <v>1</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="23" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>122</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
+      <c r="B10" s="3">
+        <v>122</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3">
         <v>9</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1103,24 +1072,24 @@
         <v>2</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="23" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>122</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>13</v>
+      <c r="B11" s="3">
+        <v>122</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3">
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="3">
         <v>5</v>
@@ -1132,24 +1101,24 @@
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="23" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>122</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
+      <c r="B12" s="3">
+        <v>122</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3">
         <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="3">
         <v>5</v>
@@ -1161,24 +1130,24 @@
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="23" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>122</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
+      <c r="B13" s="3">
+        <v>122</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3">
         <v>12</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="3">
         <v>5</v>
@@ -1190,24 +1159,24 @@
         <v>2</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="23" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>122</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
+      <c r="B14" s="3">
+        <v>122</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3">
         <v>13</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="3">
         <v>5</v>
@@ -1219,24 +1188,24 @@
         <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="23" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>122</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>13</v>
+      <c r="B15" s="3">
+        <v>122</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="3">
         <v>14</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="3">
         <v>5</v>
@@ -1248,24 +1217,24 @@
         <v>2</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="23" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>122</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3">
+        <v>122</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="3">
         <v>5</v>
@@ -1277,24 +1246,24 @@
         <v>1</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="23" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>122</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
+      <c r="B17" s="3">
+        <v>122</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="3">
         <v>5</v>
@@ -1306,24 +1275,24 @@
         <v>1</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="23" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>122</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>13</v>
+      <c r="B18" s="3">
+        <v>122</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" s="3">
         <v>5</v>
@@ -1335,24 +1304,24 @@
         <v>2</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="23" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>122</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>13</v>
+      <c r="B19" s="3">
+        <v>122</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" s="3">
         <v>5</v>
@@ -1364,52 +1333,37 @@
         <v>2</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A6:B15 B16:B19 G1 A1:B1">
-    <cfRule type="cellIs" dxfId="16" priority="110" operator="equal">
+  <conditionalFormatting sqref="G1 A1:B1 A6:A15">
+    <cfRule type="cellIs" dxfId="12" priority="111" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="15" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="109" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A5">
-    <cfRule type="cellIs" dxfId="14" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="101" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A17">
-    <cfRule type="cellIs" dxfId="13" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19">
-    <cfRule type="cellIs" dxfId="12" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
+  <conditionalFormatting sqref="B2:B19">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/hneu-personal-account-webapp/src/test/resources/parser/disciplines.xlsx
+++ b/hneu-personal-account-webapp/src/test/resources/parser/disciplines.xlsx
@@ -1,23 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oleksandrrozdolskyi/Repos/hneu-personal-account/hneu-personal-account-webapp/src/test/resources/parser/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKSPACE\IntellijIdeaProjects\gradle\hneu-personal-account\hneu-personal-account-webapp\src\test\resources\parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="26" yWindow="458" windowWidth="25606" windowHeight="14439" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2">"$#ССЫЛ!.$A$6:$AMJ$1841"</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2_1">"$#ССЫЛ!.$A$3:$AN$1820"</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2_1_1">"$#ССЫЛ!.$A$3:$AN$1820"</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_3">"$#ССЫЛ!.$A$6:$AMJ$1841"</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_3_1">"$#ССЫЛ!.$#ССЫЛ!$#ССЫЛ!"</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_3_1_1">"$#ССЫЛ!.$#ССЫЛ!$#ССЫЛ!"</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_4">"$#ССЫЛ!.$#ССЫЛ!$#ССЫЛ!"</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_4_1">"$#ССЫЛ!.$#ССЫЛ!$#ССЫЛ!"</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6">"$#ССЫЛ!.$A$6:$AMJ$6"</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6_1">"$#ССЫЛ!.$#ССЫЛ!$#ССЫЛ!"</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6_1_1">"$#ССЫЛ!.$#ССЫЛ!$#ССЫЛ!"</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7">"$#ССЫЛ!.$A$6:$AMJ$6"</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7_1">"$#ССЫЛ!.$#ССЫЛ!$#ССЫЛ!"</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7_1_1">"$#ССЫЛ!.$#ССЫЛ!$#ССЫЛ!"</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1_1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1_1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area_1_1_1_1_1_1">#REF!</definedName>
+  </definedNames>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -137,13 +162,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,96 +287,98 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="59">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="5" builtinId="8" hidden="1"/>
@@ -373,6 +408,7 @@
     <cellStyle name="Гиперссылка" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="57"/>
     <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Открывавшаяся гиперссылка" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Открывавшаяся гиперссылка" xfId="6" builtinId="9" hidden="1"/>
@@ -401,57 +437,9 @@
     <cellStyle name="Открывавшаяся гиперссылка" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Открывавшаяся гиперссылка" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Открывавшаяся гиперссылка" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Процентный 2" xfId="58"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -500,8 +488,26 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="ДЕННА"/>
+      <sheetName val="специализации"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -769,23 +775,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
     <col min="5" max="5" width="81.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="185" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="143.35" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -814,7 +820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="23.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>122</v>
       </c>
@@ -843,7 +849,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="23.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>122</v>
       </c>
@@ -872,7 +878,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="23.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>122</v>
       </c>
@@ -901,7 +907,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="23.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>122</v>
       </c>
@@ -930,7 +936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="23.6" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>122</v>
       </c>
@@ -959,7 +965,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="23.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>122</v>
       </c>
@@ -988,7 +994,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="23.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>122</v>
       </c>
@@ -1017,7 +1023,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="23.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>122</v>
       </c>
@@ -1046,7 +1052,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="23.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>122</v>
       </c>
@@ -1075,7 +1081,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="23.6" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>122</v>
       </c>
@@ -1104,7 +1110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="23.6" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>122</v>
       </c>
@@ -1133,7 +1139,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="23.6" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>122</v>
       </c>
@@ -1162,7 +1168,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="23.6" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>122</v>
       </c>
@@ -1191,7 +1197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="23.6" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>122</v>
       </c>
@@ -1220,7 +1226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="23.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>122</v>
       </c>
@@ -1249,7 +1255,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="23.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>122</v>
       </c>
@@ -1278,7 +1284,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="23.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>122</v>
       </c>
@@ -1307,7 +1313,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="23.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>122</v>
       </c>
@@ -1338,36 +1344,48 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1 A1:B1 A6:A15">
-    <cfRule type="cellIs" dxfId="12" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="111" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="11" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="109" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A5">
-    <cfRule type="cellIs" dxfId="10" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="101" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A17">
-    <cfRule type="cellIs" dxfId="9" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19">
-    <cfRule type="cellIs" dxfId="8" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B19">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>